--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value913.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value913.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.698143235411199</v>
+        <v>1.286676049232483</v>
       </c>
       <c r="B1">
-        <v>1.835280455037066</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.12741181087488</v>
+        <v>2.196618556976318</v>
       </c>
       <c r="D1">
-        <v>3.537519656250661</v>
+        <v>1.291357278823853</v>
       </c>
       <c r="E1">
-        <v>1.400284931461056</v>
+        <v>0.9157800674438477</v>
       </c>
     </row>
   </sheetData>
